--- a/Backend/database/Adatbázis.xlsx
+++ b/Backend/database/Adatbázis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tanulók\2024-25\13.D\Nagy Ferenc\Érettségi\Kölcsönzés\Kolcsonzes_Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petya\Desktop\projekt_feladat\kölcsönzés\Kolcsonzes_Projekt\Backend\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{7DD5FC65-3203-4601-AB94-D803545D3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E36006-D71F-4574-80AF-E2BAE2CD1DF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C0812-F858-46BB-8AFE-BCBBBB9EFCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolcsonzes_Magyar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>muvek</t>
   </si>
@@ -117,18 +117,6 @@
     <t>tanarId</t>
   </si>
   <si>
-    <t>olvasonaplok</t>
-  </si>
-  <si>
-    <t>diakVelemeny</t>
-  </si>
-  <si>
-    <t>ertekeles</t>
-  </si>
-  <si>
-    <t>valami</t>
-  </si>
-  <si>
     <t>szerepkorok</t>
   </si>
   <si>
@@ -198,15 +186,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>readingDiaries</t>
-  </si>
-  <si>
-    <t>studentOpinion</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
     <t>roles</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
   </si>
   <si>
     <t>Roles</t>
-  </si>
-  <si>
-    <t>Readingdiaries</t>
   </si>
   <si>
     <t>Groups</t>
@@ -250,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,19 +343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -396,15 +359,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -413,15 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -653,15 +609,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>313925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459601</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>166326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>670273</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153681</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>18008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -680,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14354896" y="2710061"/>
-          <a:ext cx="1723465" cy="389565"/>
+          <a:off x="13940277" y="2261826"/>
+          <a:ext cx="1509433" cy="423182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,16 +776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123664</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>325370</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>637214</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43302</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -847,8 +803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12069135" y="3564590"/>
-          <a:ext cx="1802226" cy="387164"/>
+          <a:off x="12494958" y="3105150"/>
+          <a:ext cx="1634138" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,15 +944,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>23854</xdr:colOff>
+      <xdr:colOff>550531</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>67474</xdr:rowOff>
+      <xdr:rowOff>123503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441351</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362911</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1014,8 +970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16799060" y="2062121"/>
-          <a:ext cx="1784615" cy="403172"/>
+          <a:off x="15846560" y="2219003"/>
+          <a:ext cx="1627733" cy="414378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1154,16 +1110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>670273</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153681</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>67474</xdr:rowOff>
+      <xdr:rowOff>123503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>232603</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154162</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>187417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1190,13 +1146,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16078361" y="2062121"/>
-          <a:ext cx="1613007" cy="842723"/>
+          <a:off x="15449710" y="2219003"/>
+          <a:ext cx="1210717" cy="254414"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 22340"/>
-            <a:gd name="adj2" fmla="val 127126"/>
+            <a:gd name="adj1" fmla="val 16389"/>
+            <a:gd name="adj2" fmla="val 189854"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1222,16 +1178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1024777</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>436468</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>187416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>313925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1258,8 +1214,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="12970248" y="2904844"/>
-          <a:ext cx="1384648" cy="659746"/>
+          <a:off x="13312027" y="2473416"/>
+          <a:ext cx="628250" cy="631733"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1287,16 +1243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123664</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161044</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44905</xdr:rowOff>
+      <xdr:rowOff>44904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127426</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138673</xdr:rowOff>
+      <xdr:colOff>325371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1322,15 +1278,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="12069135" y="2588640"/>
-          <a:ext cx="1292438" cy="1169533"/>
+        <a:xfrm rot="10800000">
+          <a:off x="12330632" y="2711904"/>
+          <a:ext cx="164327" cy="598034"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -17688"/>
-            <a:gd name="adj2" fmla="val 58276"/>
-          </a:avLst>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -1593,10 +1546,10 @@
       <xdr:rowOff>130349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441351</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362911</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>89766</xdr:rowOff>
+      <xdr:rowOff>140192</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1623,310 +1576,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15965341" y="1228525"/>
-          <a:ext cx="2618334" cy="1035182"/>
+          <a:off x="14643047" y="1273349"/>
+          <a:ext cx="2831246" cy="1152843"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -8731"/>
+            <a:gd name="adj1" fmla="val -8074"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561255</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234044</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>98373</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Téglalap 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{57BF2EFD-1032-43D4-A49F-2F4E7128B3FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14602226" y="3700504"/>
-          <a:ext cx="1723465" cy="387163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>olvasonaplok</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234044</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>232603</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95292</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Görbe összekötő 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F6515F-3643-4557-8E77-4FF53CD72266}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="6" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}" end="{AAFDA631-19DB-49BB-9DA2-53980D0990AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16325691" y="2465293"/>
-          <a:ext cx="1365677" cy="1428793"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127427</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561256</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95293</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Görbe összekötő 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA8831B-F998-471A-8E7F-3DB305432E42}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27F6515F-3643-4557-8E77-4FF53CD72266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="14" idx="1"/>
-          <a:endCxn id="3" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}" end="{D1E71B48-2862-4859-84F9-4E483B9E5426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="13361574" y="2588640"/>
-          <a:ext cx="1240653" cy="1305447"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -2163,69 +1819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="Egyenes összekötő nyíllal 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C5E4F2-F006-483D-95AD-B54F9E560AD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1299882" y="1288676"/>
-          <a:ext cx="6051177" cy="2891118"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349943</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84606</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>148237</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2243,8 +1846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14735735" y="4594413"/>
-          <a:ext cx="1795502" cy="387164"/>
+          <a:off x="13648764" y="3619501"/>
+          <a:ext cx="3005738" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,16 +1992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349943</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550531</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>89766</xdr:rowOff>
+      <xdr:rowOff>140192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>23854</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70319</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>148237</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2415,13 +2018,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16531237" y="2263707"/>
-          <a:ext cx="357470" cy="2524288"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15846560" y="2426192"/>
+          <a:ext cx="807942" cy="1398097"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:prstGeom prst="curvedConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -28294"/>
+            <a:gd name="adj2" fmla="val 49914"/>
+            <a:gd name="adj3" fmla="val 128294"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2447,16 +2052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2470,9 +2075,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1064559" y="2902324"/>
-          <a:ext cx="1580029" cy="1804147"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2375647" y="3048000"/>
+          <a:ext cx="3260912" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2506,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63954</xdr:rowOff>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6083</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>81323</xdr:rowOff>
+      <xdr:colOff>118142</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2532,8 +2137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11721353" y="2237895"/>
-          <a:ext cx="1787818" cy="387163"/>
+          <a:off x="11250706" y="2092219"/>
+          <a:ext cx="1518877" cy="398369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,15 +2284,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>472488</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103575</xdr:rowOff>
+      <xdr:colOff>584547</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>150879</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>134552</xdr:rowOff>
+      <xdr:colOff>262938</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2705,8 +2310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14435017" y="2468016"/>
-          <a:ext cx="1729068" cy="389565"/>
+          <a:off x="13235988" y="1885311"/>
+          <a:ext cx="1493744" cy="411977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,15 +2457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57551</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>159683</xdr:rowOff>
+      <xdr:colOff>1010051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>564377</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205789</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2878,8 +2483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11924580" y="3599889"/>
-          <a:ext cx="1795503" cy="387164"/>
+          <a:off x="11834933" y="3330948"/>
+          <a:ext cx="1627415" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,16 +2638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95009</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>510827</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101413</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>51386</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3060,8 +2665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16791774" y="2241975"/>
-          <a:ext cx="1782935" cy="403173"/>
+          <a:off x="15917715" y="2510916"/>
+          <a:ext cx="1626053" cy="414379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,15 +2806,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>150879</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
+      <xdr:colOff>262938</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>302918</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448595</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34416</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3235,15 +2840,77 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16164085" y="2241975"/>
-          <a:ext cx="1519157" cy="420824"/>
+        <a:xfrm>
+          <a:off x="14729732" y="2091300"/>
+          <a:ext cx="2001010" cy="419616"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 20659"/>
-            <a:gd name="adj2" fmla="val 154322"/>
-          </a:avLst>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>703171</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584548</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Görbe összekötő 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B0F4D8-D07E-4E45-AD95-F1214FF0149C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{87FCE781-16CE-4CC1-A4A9-C8F9885C69E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DC0FEBC1-FD83-4963-9BEF-AC7D93FAA5AE}" end="{FC1100EA-187F-4AF2-AC1E-02C7FBD99516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12648642" y="2091300"/>
+          <a:ext cx="587347" cy="1239648"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -3269,80 +2936,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>955304</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:colOff>1010051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472489</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>159683</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Görbe összekötő 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B0F4D8-D07E-4E45-AD95-F1214FF0149C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{87FCE781-16CE-4CC1-A4A9-C8F9885C69E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="4" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{DC0FEBC1-FD83-4963-9BEF-AC7D93FAA5AE}" end="{FC1100EA-187F-4AF2-AC1E-02C7FBD99516}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="12822333" y="2662799"/>
-          <a:ext cx="1612685" cy="937090"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>81324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1207673</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>173972</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106736</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3369,13 +2971,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11924579" y="2625059"/>
-          <a:ext cx="1150123" cy="1168413"/>
+          <a:off x="11834933" y="2490588"/>
+          <a:ext cx="175212" cy="1045148"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -19876"/>
-            <a:gd name="adj2" fmla="val 58284"/>
+            <a:gd name="adj1" fmla="val -130471"/>
+            <a:gd name="adj2" fmla="val 59797"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3574,16 +3176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1207673</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64674</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>110740</xdr:rowOff>
+      <xdr:rowOff>110739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>33936</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63955</xdr:rowOff>
+      <xdr:colOff>33937</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187220</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3610,8 +3212,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="13155565" y="1262524"/>
-          <a:ext cx="1028980" cy="921763"/>
+          <a:off x="11928521" y="1335363"/>
+          <a:ext cx="838481" cy="675233"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -3642,13 +3244,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>384682</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>110739</xdr:rowOff>
+      <xdr:rowOff>110738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>510827</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79121</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>51386</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51106</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3675,352 +3277,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15848800" y="1208915"/>
-          <a:ext cx="2860380" cy="1234647"/>
+          <a:off x="14246358" y="1253738"/>
+          <a:ext cx="3297410" cy="1464368"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7992"/>
+            <a:gd name="adj1" fmla="val -6933"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302959</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>658745</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Téglalap 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F015BF4-4BA1-49D4-AADC-278E0FE87EFB}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{57BF2EFD-1032-43D4-A49F-2F4E7128B3FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14265488" y="3731881"/>
-          <a:ext cx="1722904" cy="400049"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="hu-HU" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>eading</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="hu-HU" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>iar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="hu-HU" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ies</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>658745</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>302918</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133112</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Görbe összekötő 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65181972-9BA1-445B-8723-BE6543F2E22C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="5" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}" end="{AAFDA631-19DB-49BB-9DA2-53980D0990AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15988392" y="2645148"/>
-          <a:ext cx="1694850" cy="1286758"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1207675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>81323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133112</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Görbe összekötő 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBFCD1B-F748-474F-843E-E5CF392158EF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27F6515F-3643-4557-8E77-4FF53CD72266}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="12" idx="1"/>
-          <a:endCxn id="2" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{AEF5F3E6-020D-4824-B2BC-2E3AFA66EAC0}" end="{D1E71B48-2862-4859-84F9-4E483B9E5426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="13074704" y="2625058"/>
-          <a:ext cx="1190785" cy="1306848"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -4257,74 +3520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Egyenes összekötő nyíllal 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BEFE78-1072-45AC-B7FB-82272F12263D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{508FFDF3-B355-4496-8F78-E0B71A588A7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="1295400"/>
-          <a:ext cx="6362700" cy="2914650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>506506</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>428384</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>151840</xdr:rowOff>
+      <xdr:colOff>327532</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4342,8 +3547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15464117" y="5020235"/>
-          <a:ext cx="1795502" cy="387164"/>
+          <a:off x="13763065" y="2902324"/>
+          <a:ext cx="1636379" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4489,15 +3694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>95009</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79121</xdr:rowOff>
+      <xdr:colOff>327532</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428384</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>137552</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240686</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59112</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4514,15 +3719,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="16926244" y="2443562"/>
-          <a:ext cx="333375" cy="2770255"/>
+        <a:xfrm flipV="1">
+          <a:off x="15399444" y="2718106"/>
+          <a:ext cx="518271" cy="389006"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector5">
+        <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -68571"/>
-            <a:gd name="adj2" fmla="val 49856"/>
-            <a:gd name="adj3" fmla="val 168571"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4548,16 +3751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4571,67 +3774,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="840441" y="2868707"/>
-          <a:ext cx="1423147" cy="2207558"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Egyenes összekötő nyíllal 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CFB385-BE4C-4121-A820-FEB57D4BBD1D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D232B866-B1DA-45D3-AC24-15E5A454DEF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="933450" y="1990725"/>
-          <a:ext cx="4762500" cy="2247900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2028264" y="3003178"/>
+          <a:ext cx="3496236" cy="1019734"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4777,8 +3922,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7650E26-D4FF-433C-9AC7-4FD1DD9D11C1}" name="Táblázat1" displayName="Táblázat1" ref="F30:G37" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="F30:G37" xr:uid="{A7650E26-D4FF-433C-9AC7-4FD1DD9D11C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7650E26-D4FF-433C-9AC7-4FD1DD9D11C1}" name="Táblázat1" displayName="Táblázat1" ref="F30:G36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="F30:G36" xr:uid="{A7650E26-D4FF-433C-9AC7-4FD1DD9D11C1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{16910E4A-952B-48E3-888C-4FC74619C4AB}" name="Seeder" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{639C08C7-C383-4216-B02B-D3D794ECA0BD}" name="Törlés" dataDxfId="0"/>
@@ -5104,13 +4249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M31"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
@@ -5127,15 +4272,15 @@
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:13" ht="15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -5148,15 +4293,15 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -5185,7 +4330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -5207,14 +4352,14 @@
       <c r="K6" s="1">
         <v>45</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>45599</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>45630</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -5234,14 +4379,14 @@
       <c r="K7" s="1">
         <v>23</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>45600</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>45631</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <v>3</v>
       </c>
@@ -5251,14 +4396,14 @@
       <c r="K8" s="1">
         <v>23</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>45601</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>45632</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <v>4</v>
       </c>
@@ -5268,28 +4413,28 @@
       <c r="K9" s="1">
         <v>65</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <v>45602</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>45633</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="2:13" ht="15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -5315,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -5335,11 +4480,11 @@
       <c r="J14" s="1">
         <v>4900</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -5359,11 +4504,11 @@
       <c r="J15" s="1">
         <v>4900</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -5383,11 +4528,11 @@
       <c r="J16" s="1">
         <v>4900</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1">
         <v>4</v>
       </c>
@@ -5397,19 +4542,19 @@
       <c r="J17" s="1">
         <v>4900</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:11" ht="15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -5419,9 +4564,13 @@
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -5431,8 +4580,14 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -5442,14 +4597,14 @@
       <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="2:11" ht="15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -5459,93 +4614,19 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>28</v>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="10" t="s">
+      <c r="H26" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15">
-      <c r="B28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5557,13 +4638,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A8F50-268A-44E3-9D76-18244422357E}">
-  <dimension ref="B3:M38"/>
+  <dimension ref="B3:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
@@ -5579,36 +4660,36 @@
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
-    <row r="4" spans="2:13" ht="15">
-      <c r="B4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="2:13" ht="15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -5625,19 +4706,19 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -5659,14 +4740,14 @@
       <c r="K6" s="1">
         <v>45</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>45599</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>45630</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -5686,14 +4767,14 @@
       <c r="K7" s="1">
         <v>23</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>45600</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>45631</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <v>3</v>
       </c>
@@ -5703,14 +4784,14 @@
       <c r="K8" s="1">
         <v>23</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>45601</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>45632</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <v>4</v>
       </c>
@@ -5720,58 +4801,58 @@
       <c r="K9" s="1">
         <v>65</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <v>45602</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>45633</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="2:13" ht="15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -5779,7 +4860,7 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
@@ -5792,11 +4873,11 @@
       <c r="J14" s="1">
         <v>4900</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -5804,7 +4885,7 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
@@ -5817,11 +4898,11 @@
       <c r="J15" s="1">
         <v>4900</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -5829,7 +4910,7 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
@@ -5842,11 +4923,11 @@
       <c r="J16" s="1">
         <v>4900</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1">
         <v>4</v>
       </c>
@@ -5856,33 +4937,35 @@
       <c r="J17" s="1">
         <v>4900</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>44077</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15"/>
-    <row r="20" spans="2:11" ht="15"/>
-    <row r="21" spans="2:11" ht="15">
-      <c r="B21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:11" ht="15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:11" ht="15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -5892,8 +4975,14 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="2:11" ht="15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -5903,15 +4992,14 @@
       <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="2:11" ht="15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -5921,188 +5009,101 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="F32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="26" spans="2:11" ht="15">
-      <c r="F26" s="17">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>3</v>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15">
-      <c r="F27" s="17">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>4</v>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15">
-      <c r="F28" s="17">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="6">
-        <v>2</v>
-      </c>
-      <c r="J28" s="6">
-        <v>5</v>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="10" t="s">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="30" spans="2:11" ht="15">
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="E34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="E35" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="E36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="E37" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="E38" s="10" t="s">
-        <v>62</v>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6124,17 +5125,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7c92ca0-021c-40ca-94a6-a2e5f6245384">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="517a9ed4-7eb6-4d79-bb13-f742afa9ee4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010064BA54B0C393A2489552B8F9332406A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="44c5ac6e7392cc0f6ba3a968409ffb51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7c92ca0-021c-40ca-94a6-a2e5f6245384" xmlns:ns3="517a9ed4-7eb6-4d79-bb13-f742afa9ee4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b89e65a35ff79a095a034a3ad1d32fa9" ns2:_="" ns3:_="">
     <xsd:import namespace="c7c92ca0-021c-40ca-94a6-a2e5f6245384"/>
@@ -6335,14 +5325,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c7c92ca0-021c-40ca-94a6-a2e5f6245384">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="517a9ed4-7eb6-4d79-bb13-f742afa9ee4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4703BB6-11CC-4E01-BAEE-485DB49CD518}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4703BB6-11CC-4E01-BAEE-485DB49CD518}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9A34FBF-C707-4416-8F50-87DEE65F10DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4E68B4-4024-41CF-AD75-32875475BC7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c7c92ca0-021c-40ca-94a6-a2e5f6245384"/>
+    <ds:schemaRef ds:uri="517a9ed4-7eb6-4d79-bb13-f742afa9ee4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4E68B4-4024-41CF-AD75-32875475BC7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9A34FBF-C707-4416-8F50-87DEE65F10DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7c92ca0-021c-40ca-94a6-a2e5f6245384"/>
+    <ds:schemaRef ds:uri="517a9ed4-7eb6-4d79-bb13-f742afa9ee4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>